--- a/FPH_Linear/314-FPH-Relatório-Reg-D-PIMENTAL    .xlsx
+++ b/FPH_Linear/314-FPH-Relatório-Reg-D-PIMENTAL    .xlsx
@@ -951,7 +951,7 @@
         <v>0.06131987415872577</v>
       </c>
       <c r="E2">
-        <v>-0.005896622603498059</v>
+        <v>-0.005596622651724175</v>
       </c>
       <c r="F2">
         <v>-110.8118430093942</v>
@@ -960,7 +960,7 @@
         <v>0.3115775153722682</v>
       </c>
       <c r="H2">
-        <v>5.752575559367742</v>
+        <v>5.974294725636946</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -977,7 +977,7 @@
         <v>0.06092100760796852</v>
       </c>
       <c r="E3">
-        <v>-0.005893920838096939</v>
+        <v>-0.005594308155046746</v>
       </c>
       <c r="F3">
         <v>-109.9783366371433</v>
@@ -997,7 +997,7 @@
         <v>0.06053146862335946</v>
       </c>
       <c r="E4">
-        <v>-0.00589216178200995</v>
+        <v>-0.005592801240542971</v>
       </c>
       <c r="F4">
         <v>-109.1954744051063</v>
@@ -1017,7 +1017,7 @@
         <v>0.06015090827309139</v>
       </c>
       <c r="E5">
-        <v>-0.005891302526547655</v>
+        <v>-0.005592065150017967</v>
       </c>
       <c r="F5">
         <v>-108.4610910655317</v>
@@ -1037,7 +1037,7 @@
         <v>0.04598990561904379</v>
       </c>
       <c r="E6">
-        <v>-0.005891302526547655</v>
+        <v>-0.005592065150017967</v>
       </c>
       <c r="F6">
         <v>-82.26649982412411</v>
@@ -1057,7 +1057,7 @@
         <v>0.04569075570597639</v>
       </c>
       <c r="E7">
-        <v>-0.005891302526547659</v>
+        <v>-0.005592065150017971</v>
       </c>
       <c r="F7">
         <v>-81.68124303644754</v>
@@ -1077,7 +1077,7 @@
         <v>0.04539860146752013</v>
       </c>
       <c r="E8">
-        <v>-0.005891302526547655</v>
+        <v>-0.005592065150017967</v>
       </c>
       <c r="F8">
         <v>-81.0785201406527</v>
@@ -1097,7 +1097,7 @@
         <v>0.04511318120481854</v>
       </c>
       <c r="E9">
-        <v>-0.005891302526547655</v>
+        <v>-0.005592065150017967</v>
       </c>
       <c r="F9">
         <v>-80.45925523856528</v>
@@ -1117,7 +1117,7 @@
         <v>0.04598990561904379</v>
       </c>
       <c r="E10">
-        <v>-0.006046732468023414</v>
+        <v>-0.005725215897662254</v>
       </c>
       <c r="F10">
         <v>-87.77175063622494</v>
@@ -1137,7 +1137,7 @@
         <v>0.04569075570597638</v>
       </c>
       <c r="E11">
-        <v>-0.006045381585322853</v>
+        <v>-0.005724058649323537</v>
       </c>
       <c r="F11">
         <v>-87.13864625873578</v>
@@ -1157,7 +1157,7 @@
         <v>0.04539860146752013</v>
       </c>
       <c r="E12">
-        <v>-0.006045381585322853</v>
+        <v>-0.005724058649323537</v>
       </c>
       <c r="F12">
         <v>-86.53592336294092</v>
@@ -1177,7 +1177,7 @@
         <v>0.04511318120481854</v>
       </c>
       <c r="E13">
-        <v>-0.006046670468516304</v>
+        <v>-0.00572516278511105</v>
       </c>
       <c r="F13">
         <v>-85.96231005912382</v>
@@ -1197,7 +1197,7 @@
         <v>0.03065993707936305</v>
       </c>
       <c r="E14">
-        <v>-0.006177204602762844</v>
+        <v>-0.00583698626907432</v>
       </c>
       <c r="F14">
         <v>-57.68598819215651</v>
@@ -1217,7 +1217,7 @@
         <v>0.03046050380398433</v>
       </c>
       <c r="E15">
-        <v>-0.006178555485463413</v>
+        <v>-0.005838143517413041</v>
       </c>
       <c r="F15">
         <v>-57.27986780376681</v>
@@ -1237,7 +1237,7 @@
         <v>0.03026573431168088</v>
       </c>
       <c r="E16">
-        <v>-0.006179435013506897</v>
+        <v>-0.00583889697466492</v>
       </c>
       <c r="F16">
         <v>-56.86766839205973</v>
@@ -1257,7 +1257,7 @@
         <v>0.03007545413654553</v>
       </c>
       <c r="E17">
-        <v>-0.006179864641238052</v>
+        <v>-0.005839265019927428</v>
       </c>
       <c r="F17">
         <v>-56.44975272419148</v>
@@ -1277,7 +1277,7 @@
         <v>0.03065993707936289</v>
       </c>
       <c r="E18">
-        <v>-0.006559165364038367</v>
+        <v>-0.006164197104076456</v>
       </c>
       <c r="F18">
         <v>-62.19560792015552</v>
@@ -1297,7 +1297,7 @@
         <v>0.03046050380398426</v>
       </c>
       <c r="E19">
-        <v>-0.006558715069804847</v>
+        <v>-0.006163811354630218</v>
       </c>
       <c r="F19">
         <v>-61.76822193629388</v>
@@ -1317,7 +1317,7 @@
         <v>0.03026573431168079</v>
       </c>
       <c r="E20">
-        <v>-0.006559594597848337</v>
+        <v>-0.006164564811882102</v>
       </c>
       <c r="F20">
         <v>-61.35602252458661</v>
@@ -1337,7 +1337,7 @@
         <v>0.03007545413654569</v>
       </c>
       <c r="E21">
-        <v>-0.00656174273650409</v>
+        <v>-0.006166405038194623</v>
       </c>
       <c r="F21">
         <v>-60.95839645595031</v>
@@ -1357,7 +1357,7 @@
         <v>0.01532996853968144</v>
       </c>
       <c r="E22">
-        <v>-0.006828089748942846</v>
+        <v>-0.006394574099459907</v>
       </c>
       <c r="F22">
         <v>-30.5380204730269</v>
@@ -1377,7 +1377,7 @@
         <v>0.01523025190199213</v>
       </c>
       <c r="E23">
-        <v>-0.006829440631643408</v>
+        <v>-0.006395731347798624</v>
       </c>
       <c r="F23">
         <v>-30.32698568053011</v>
@@ -1397,7 +1397,7 @@
         <v>0.0151328671558404</v>
       </c>
       <c r="E24">
-        <v>-0.006830320159686907</v>
+        <v>-0.006396484805050516</v>
       </c>
       <c r="F24">
         <v>-30.11569390075376</v>
@@ -1417,7 +1417,7 @@
         <v>0.01503772706827285</v>
       </c>
       <c r="E25">
-        <v>-0.006830749787418053</v>
+        <v>-0.006396852850313016</v>
       </c>
       <c r="F25">
         <v>-29.90419986691606</v>
@@ -1437,7 +1437,7 @@
         <v>0.01532996853968144</v>
       </c>
       <c r="E26">
-        <v>-0.007519945350878515</v>
+        <v>-0.006987259715789429</v>
       </c>
       <c r="F26">
         <v>-33.26081819444472</v>
@@ -1457,7 +1457,7 @@
         <v>0.01523025190199213</v>
       </c>
       <c r="E27">
-        <v>-0.007519945350878518</v>
+        <v>-0.006987259715789433</v>
       </c>
       <c r="F27">
         <v>-33.04446700307988</v>
@@ -1477,7 +1477,7 @@
         <v>0.0151328671558404</v>
       </c>
       <c r="E28">
-        <v>-0.007520824878921998</v>
+        <v>-0.006988013173041309</v>
       </c>
       <c r="F28">
         <v>-32.83317522330353</v>
@@ -1497,7 +1497,7 @@
         <v>0.01503772706827285</v>
       </c>
       <c r="E29">
-        <v>-0.00752254338984661</v>
+        <v>-0.006989485354091333</v>
       </c>
       <c r="F29">
         <v>-32.62675358927363</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>-0.007929982024423254</v>
+        <v>-0.007338522085997379</v>
       </c>
       <c r="F30">
         <v>0</v>
